--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H2">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I2">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J2">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N2">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O2">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P2">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q2">
-        <v>0.014766229012</v>
+        <v>0.023283947293</v>
       </c>
       <c r="R2">
-        <v>0.132896061108</v>
+        <v>0.209555525637</v>
       </c>
       <c r="S2">
-        <v>0.001704402332320962</v>
+        <v>0.00283638751203075</v>
       </c>
       <c r="T2">
-        <v>0.001787434452495621</v>
+        <v>0.002910286640444758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H3">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I3">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J3">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P3">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q3">
-        <v>0.4919034844918889</v>
+        <v>0.6845626679029999</v>
       </c>
       <c r="R3">
-        <v>4.427131360427</v>
+        <v>6.161064011127</v>
       </c>
       <c r="S3">
-        <v>0.05677830443801486</v>
+        <v>0.08339157351667188</v>
       </c>
       <c r="T3">
-        <v>0.0595443315127319</v>
+        <v>0.08556425428536647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H4">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I4">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J4">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N4">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O4">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P4">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q4">
-        <v>0.01198873062911111</v>
+        <v>0.009710684952</v>
       </c>
       <c r="R4">
-        <v>0.107898575662</v>
+        <v>0.08739616456800001</v>
       </c>
       <c r="S4">
-        <v>0.001383807634922839</v>
+        <v>0.001182929388411656</v>
       </c>
       <c r="T4">
-        <v>0.001451221578017518</v>
+        <v>0.001213749384060399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H5">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I5">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J5">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N5">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O5">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P5">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q5">
-        <v>0.08567461595516669</v>
+        <v>0.0600843206805</v>
       </c>
       <c r="R5">
-        <v>0.5140476957310002</v>
+        <v>0.360505924083</v>
       </c>
       <c r="S5">
-        <v>0.009889052589934786</v>
+        <v>0.007319309509786442</v>
       </c>
       <c r="T5">
-        <v>0.006913873548358047</v>
+        <v>0.00500667100746066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01948966666666667</v>
+        <v>0.027123</v>
       </c>
       <c r="H6">
-        <v>0.05846900000000001</v>
+        <v>0.081369</v>
       </c>
       <c r="I6">
-        <v>0.07096062449330312</v>
+        <v>0.0960827240265261</v>
       </c>
       <c r="J6">
-        <v>0.07096062449330312</v>
+        <v>0.09608272402652611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N6">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O6">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P6">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q6">
-        <v>0.01044011419855556</v>
+        <v>0.01110289046</v>
       </c>
       <c r="R6">
-        <v>0.09396102778700001</v>
+        <v>0.09992601414000001</v>
       </c>
       <c r="S6">
-        <v>0.001205057498109679</v>
+        <v>0.001352524099625368</v>
       </c>
       <c r="T6">
-        <v>0.001263763401700038</v>
+        <v>0.00138776270919381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I7">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J7">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.757644</v>
+        <v>0.8584576666666667</v>
       </c>
       <c r="N7">
-        <v>2.272932</v>
+        <v>2.575373</v>
       </c>
       <c r="O7">
-        <v>0.02401898721285653</v>
+        <v>0.02952026538348031</v>
       </c>
       <c r="P7">
-        <v>0.02518910262217759</v>
+        <v>0.03028938521394646</v>
       </c>
       <c r="Q7">
-        <v>0.19332423126</v>
+        <v>0.219048350515</v>
       </c>
       <c r="R7">
-        <v>1.73991808134</v>
+        <v>1.971435154635</v>
       </c>
       <c r="S7">
-        <v>0.02231458488053557</v>
+        <v>0.02668387787144956</v>
       </c>
       <c r="T7">
-        <v>0.02340166816968197</v>
+        <v>0.0273790985735017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I8">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J8">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>25.23919433333333</v>
       </c>
       <c r="N8">
-        <v>75.71758299999999</v>
+        <v>75.717583</v>
       </c>
       <c r="O8">
-        <v>0.8001381730141522</v>
+        <v>0.8679143348771993</v>
       </c>
       <c r="P8">
-        <v>0.8391179183936208</v>
+        <v>0.8905269407406087</v>
       </c>
       <c r="Q8">
-        <v>6.440159022064998</v>
+        <v>6.440159022064999</v>
       </c>
       <c r="R8">
-        <v>57.96143119858499</v>
+        <v>57.961431198585</v>
       </c>
       <c r="S8">
-        <v>0.7433598685761373</v>
+        <v>0.7845227613605273</v>
       </c>
       <c r="T8">
-        <v>0.779573586880889</v>
+        <v>0.8049626864552422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I9">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J9">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6151326666666667</v>
+        <v>0.3580240000000001</v>
       </c>
       <c r="N9">
-        <v>1.845398</v>
+        <v>1.074072</v>
       </c>
       <c r="O9">
-        <v>0.0195010633686494</v>
+        <v>0.0123115721415754</v>
       </c>
       <c r="P9">
-        <v>0.0204510823908332</v>
+        <v>0.01263233735676886</v>
       </c>
       <c r="Q9">
-        <v>0.15696032689</v>
+        <v>0.09135519396000001</v>
       </c>
       <c r="R9">
-        <v>1.41264294201</v>
+        <v>0.82219674564</v>
       </c>
       <c r="S9">
-        <v>0.01811725573372656</v>
+        <v>0.01112864275316374</v>
       </c>
       <c r="T9">
-        <v>0.01899986081281568</v>
+        <v>0.01141858797270846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I10">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J10">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.395899500000001</v>
+        <v>2.2152535</v>
       </c>
       <c r="N10">
-        <v>8.791799000000001</v>
+        <v>4.430507</v>
       </c>
       <c r="O10">
-        <v>0.139359717597582</v>
+        <v>0.07617716487477769</v>
       </c>
       <c r="P10">
-        <v>0.09743253526482903</v>
+        <v>0.05210792115009603</v>
       </c>
       <c r="Q10">
-        <v>1.1216796959175</v>
+        <v>0.5652551593275</v>
       </c>
       <c r="R10">
-        <v>6.730078175505001</v>
+        <v>3.391530955965</v>
       </c>
       <c r="S10">
-        <v>0.1294706650076472</v>
+        <v>0.06885785536499124</v>
       </c>
       <c r="T10">
-        <v>0.09051866171647099</v>
+        <v>0.04710125014263537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7654949999999999</v>
       </c>
       <c r="I11">
-        <v>0.9290393755066968</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="J11">
-        <v>0.9290393755066969</v>
+        <v>0.9039172759734738</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5356743333333333</v>
+        <v>0.4093533333333334</v>
       </c>
       <c r="N11">
-        <v>1.607023</v>
+        <v>1.22806</v>
       </c>
       <c r="O11">
-        <v>0.01698205880675988</v>
+        <v>0.01407666272296744</v>
       </c>
       <c r="P11">
-        <v>0.01780936132853939</v>
+        <v>0.01444341553857988</v>
       </c>
       <c r="Q11">
-        <v>0.136685341265</v>
+        <v>0.1044526433</v>
       </c>
       <c r="R11">
-        <v>1.230168071385</v>
+        <v>0.9400737897</v>
       </c>
       <c r="S11">
-        <v>0.01577700130865019</v>
+        <v>0.01272413862334208</v>
       </c>
       <c r="T11">
-        <v>0.01654559792683935</v>
+        <v>0.01305565282938607</v>
       </c>
     </row>
   </sheetData>
